--- a/白名单.xlsx
+++ b/白名单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9E872D-1F4E-4FD4-B49C-A7C7D5AB58B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E53968-5FB9-4C36-A3A4-3045D8CE0BB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>有效期结束日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,14 @@
   </si>
   <si>
     <t>学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-01-05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -74,8 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -356,12 +365,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.21875" customWidth="1"/>
   </cols>
@@ -377,6 +389,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>171250530</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>171250548</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
